--- a/data/trans_orig/P24B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02A0822-94DC-4C81-B959-DD1D3E3A337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23D2ECA-42DA-4BFC-B6D2-6DFCF03AB8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9FE6B2D-C1D6-40EF-BC84-0FE550E261C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0F89CF-22C6-4450-9A27-51F37DCB05E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="565">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,1639 +76,1624 @@
     <t>7,1%</t>
   </si>
   <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>Igual</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
   </si>
   <si>
     <t>64,99%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
   </si>
   <si>
     <t>62,02%</t>
@@ -2159,7 +2144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35478684-FE4A-4E1A-9784-F732F2EBE777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7205249-1B28-4A24-B6B2-2E74692E388E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2761,13 +2746,13 @@
         <v>166627</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -2776,13 +2761,13 @@
         <v>407116</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2782,13 @@
         <v>45169</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2812,13 +2797,13 @@
         <v>44994</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -2827,13 +2812,13 @@
         <v>90163</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2874,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2901,13 +2886,13 @@
         <v>31309</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2916,13 +2901,13 @@
         <v>29545</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -2931,13 +2916,13 @@
         <v>60854</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2937,13 @@
         <v>175486</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -2967,13 +2952,13 @@
         <v>92545</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>254</v>
@@ -2982,13 +2967,13 @@
         <v>268031</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +2988,13 @@
         <v>26890</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3018,13 +3003,13 @@
         <v>22877</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -3033,13 +3018,13 @@
         <v>49767</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,7 +3080,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3107,13 +3092,13 @@
         <v>30063</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3122,13 +3107,13 @@
         <v>8790</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3137,13 +3122,13 @@
         <v>38853</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3143,13 @@
         <v>89430</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3173,13 +3158,13 @@
         <v>30542</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -3188,13 +3173,13 @@
         <v>119972</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3194,13 @@
         <v>9198</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3224,13 +3209,13 @@
         <v>7555</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3239,13 +3224,13 @@
         <v>16754</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3286,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3313,13 +3298,13 @@
         <v>31478</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3328,13 +3313,13 @@
         <v>3814</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -3343,13 +3328,13 @@
         <v>35292</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3349,13 @@
         <v>39280</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3379,13 +3364,13 @@
         <v>5399</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3394,13 +3379,13 @@
         <v>44679</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3400,13 @@
         <v>5069</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3430,13 +3415,13 @@
         <v>2006</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3445,13 +3430,13 @@
         <v>7075</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3504,13 @@
         <v>215817</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -3534,13 +3519,13 @@
         <v>159958</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>362</v>
@@ -3549,13 +3534,13 @@
         <v>375775</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3555,13 @@
         <v>975027</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>515</v>
@@ -3585,13 +3570,13 @@
         <v>526495</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>1468</v>
@@ -3600,13 +3585,13 @@
         <v>1501521</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3606,13 @@
         <v>192576</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
@@ -3636,13 +3621,13 @@
         <v>176877</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>362</v>
@@ -3651,13 +3636,13 @@
         <v>369453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3698,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD2215E-FF9D-487B-B748-753DE3938454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ABC861-CF71-4BD9-9E83-D12E7504C0C2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3859,13 +3844,13 @@
         <v>45711</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3874,13 +3859,13 @@
         <v>35060</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -3889,13 +3874,13 @@
         <v>80771</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3895,13 @@
         <v>81382</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>68</v>
@@ -3925,13 +3910,13 @@
         <v>69257</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -3940,13 +3925,13 @@
         <v>150638</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3946,13 @@
         <v>38052</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -3976,13 +3961,13 @@
         <v>43855</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -3991,13 +3976,13 @@
         <v>81907</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4050,13 @@
         <v>101245</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -4080,13 +4065,13 @@
         <v>75393</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>166</v>
@@ -4095,13 +4080,13 @@
         <v>176638</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4101,13 @@
         <v>188034</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -4131,13 +4116,13 @@
         <v>121580</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -4146,13 +4131,13 @@
         <v>309614</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4152,13 @@
         <v>59884</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4182,13 +4167,13 @@
         <v>51561</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -4197,13 +4182,13 @@
         <v>111445</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4256,13 @@
         <v>82567</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4286,13 +4271,13 @@
         <v>59643</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -4301,13 +4286,13 @@
         <v>142210</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4307,13 @@
         <v>183660</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -4337,13 +4322,13 @@
         <v>131748</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>301</v>
@@ -4352,13 +4337,13 @@
         <v>315409</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4358,13 @@
         <v>58139</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -4388,13 +4373,13 @@
         <v>56848</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4403,13 +4388,13 @@
         <v>114987</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,7 +4450,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4477,13 +4462,13 @@
         <v>80575</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4492,13 +4477,13 @@
         <v>59692</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4507,13 +4492,13 @@
         <v>140267</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4513,13 @@
         <v>163738</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -4543,13 +4528,13 @@
         <v>135952</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
@@ -4558,13 +4543,13 @@
         <v>299690</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4564,13 @@
         <v>35469</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -4594,13 +4579,13 @@
         <v>44821</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4609,13 +4594,13 @@
         <v>80290</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4656,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4683,13 +4668,13 @@
         <v>54031</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4698,13 +4683,13 @@
         <v>17872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4713,13 +4698,13 @@
         <v>71904</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4719,13 @@
         <v>87209</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -4749,13 +4734,13 @@
         <v>44679</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -4764,13 +4749,13 @@
         <v>131888</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4770,13 @@
         <v>15129</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4800,13 +4785,13 @@
         <v>5278</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4815,13 +4800,13 @@
         <v>20407</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +4862,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4889,13 +4874,13 @@
         <v>41932</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4904,13 +4889,13 @@
         <v>10528</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -4919,13 +4904,13 @@
         <v>52460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4925,13 @@
         <v>26153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -4955,13 +4940,13 @@
         <v>8851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -4970,13 +4955,13 @@
         <v>35003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4976,13 @@
         <v>10221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5006,13 +4991,13 @@
         <v>3652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5021,13 +5006,13 @@
         <v>13873</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5080,13 @@
         <v>406062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>369</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H28" s="7">
         <v>237</v>
@@ -5110,13 +5095,13 @@
         <v>258188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M28" s="7">
         <v>612</v>
@@ -5125,13 +5110,13 @@
         <v>664250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5131,13 @@
         <v>730176</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H29" s="7">
         <v>472</v>
@@ -5161,13 +5146,13 @@
         <v>512066</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M29" s="7">
         <v>1163</v>
@@ -5176,13 +5161,13 @@
         <v>1242242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5182,13 @@
         <v>216894</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>381</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H30" s="7">
         <v>189</v>
@@ -5212,13 +5197,13 @@
         <v>206016</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M30" s="7">
         <v>391</v>
@@ -5227,13 +5212,13 @@
         <v>422910</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5274,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5311,7 +5296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB12ADE6-954F-48F0-B5A6-BD94B65DC165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC99170-6FAA-4B68-9581-AFD5DA6487B1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5328,7 +5313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5435,13 +5420,13 @@
         <v>27049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5450,13 +5435,13 @@
         <v>21728</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5465,13 +5450,13 @@
         <v>48777</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5471,13 @@
         <v>90343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -5501,13 +5486,13 @@
         <v>66070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -5516,13 +5501,13 @@
         <v>156413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5522,13 @@
         <v>24911</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5552,13 +5537,13 @@
         <v>16700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>416</v>
+        <v>119</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -5567,13 +5552,13 @@
         <v>41611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5626,13 @@
         <v>58431</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5656,13 +5641,13 @@
         <v>53752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -5671,13 +5656,13 @@
         <v>112183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5677,13 @@
         <v>170326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
@@ -5707,13 +5692,13 @@
         <v>132379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -5722,13 +5707,13 @@
         <v>302706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5728,13 @@
         <v>32325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5758,13 +5743,13 @@
         <v>25972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5773,13 +5758,13 @@
         <v>58297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5832,13 @@
         <v>56416</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -5862,13 +5847,13 @@
         <v>33653</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -5877,13 +5862,13 @@
         <v>90069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>451</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,10 +5886,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -5913,13 +5898,13 @@
         <v>156852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -5928,13 +5913,13 @@
         <v>334057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5934,13 @@
         <v>30466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -5964,13 +5949,13 @@
         <v>27235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>465</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -5979,13 +5964,13 @@
         <v>57702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6026,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6053,13 +6038,13 @@
         <v>51731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6068,13 +6053,13 @@
         <v>44992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -6083,13 +6068,13 @@
         <v>96723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6089,13 @@
         <v>189215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -6119,13 +6104,13 @@
         <v>149562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -6134,13 +6119,13 @@
         <v>338776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6140,13 @@
         <v>34831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6170,13 +6155,13 @@
         <v>35257</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6185,13 +6170,13 @@
         <v>70088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6232,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6259,13 +6244,13 @@
         <v>38191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -6274,13 +6259,13 @@
         <v>28994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -6289,13 +6274,13 @@
         <v>67185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>497</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6295,13 @@
         <v>93449</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -6325,13 +6310,13 @@
         <v>72077</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -6340,13 +6325,13 @@
         <v>165526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6346,13 @@
         <v>14193</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6376,13 +6361,13 @@
         <v>13017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6391,13 +6376,13 @@
         <v>27209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6438,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6465,13 +6450,13 @@
         <v>26119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>120</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -6480,13 +6465,13 @@
         <v>15114</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>524</v>
+        <v>92</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -6495,13 +6480,13 @@
         <v>41234</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6501,13 @@
         <v>51995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -6531,13 +6516,13 @@
         <v>18533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>244</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6546,13 +6531,13 @@
         <v>70528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6552,13 @@
         <v>3144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6582,13 +6567,13 @@
         <v>4394</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6597,13 +6582,13 @@
         <v>7539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6656,13 @@
         <v>257936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>546</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H28" s="7">
         <v>188</v>
@@ -6686,13 +6671,13 @@
         <v>198234</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M28" s="7">
         <v>429</v>
@@ -6701,13 +6686,13 @@
         <v>456170</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6707,13 @@
         <v>772532</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
         <v>582</v>
@@ -6737,13 +6722,13 @@
         <v>595473</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
         <v>1302</v>
@@ -6752,13 +6737,13 @@
         <v>1368005</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6758,13 @@
         <v>139871</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -6788,13 +6773,13 @@
         <v>122575</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="M30" s="7">
         <v>244</v>
@@ -6803,13 +6788,13 @@
         <v>262446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,7 +6850,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23D2ECA-42DA-4BFC-B6D2-6DFCF03AB8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3CF0F0-E887-4A67-BC73-5419D894F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0F89CF-22C6-4450-9A27-51F37DCB05E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B553BAC-966C-4345-9B33-97AE3B6BE908}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="562">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,1663 +76,1654 @@
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>Igual</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7205249-1B28-4A24-B6B2-2E74692E388E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A9B2C4-9A4B-4C11-BB08-4F5CEA0CFABD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2579,10 +2570,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -2591,13 +2582,13 @@
         <v>47860</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -2606,13 +2597,13 @@
         <v>103033</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,7 +2659,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2680,13 +2671,13 @@
         <v>54503</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -2695,13 +2686,13 @@
         <v>45840</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -2710,13 +2701,13 @@
         <v>100342</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2722,13 @@
         <v>240489</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -2746,7 +2737,7 @@
         <v>166627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>82</v>
@@ -2782,13 +2773,13 @@
         <v>45169</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2797,13 +2788,13 @@
         <v>44994</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -2812,13 +2803,13 @@
         <v>90163</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,7 +2865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2886,13 +2877,13 @@
         <v>31309</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2901,13 +2892,13 @@
         <v>29545</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -2916,13 +2907,13 @@
         <v>60854</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2928,13 @@
         <v>175486</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -2952,13 +2943,13 @@
         <v>92545</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>254</v>
@@ -2967,13 +2958,13 @@
         <v>268031</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2979,13 @@
         <v>26890</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3003,13 +2994,13 @@
         <v>22877</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -3018,13 +3009,13 @@
         <v>49767</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,7 +3071,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3092,13 +3083,13 @@
         <v>30063</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3107,13 +3098,13 @@
         <v>8790</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3122,13 +3113,13 @@
         <v>38853</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3134,13 @@
         <v>89430</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3158,13 +3149,13 @@
         <v>30542</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -3173,13 +3164,13 @@
         <v>119972</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3185,13 @@
         <v>9198</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3209,13 +3200,13 @@
         <v>7555</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3224,13 +3215,13 @@
         <v>16754</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,7 +3277,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3298,13 +3289,13 @@
         <v>31478</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3313,13 +3304,13 @@
         <v>3814</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -3328,13 +3319,13 @@
         <v>35292</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3340,13 @@
         <v>39280</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3364,13 +3355,13 @@
         <v>5399</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3379,13 +3370,13 @@
         <v>44679</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3391,13 @@
         <v>5069</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3415,13 +3406,13 @@
         <v>2006</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3430,13 +3421,13 @@
         <v>7075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3495,13 @@
         <v>215817</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -3519,13 +3510,13 @@
         <v>159958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>362</v>
@@ -3534,13 +3525,13 @@
         <v>375775</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3546,13 @@
         <v>975027</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>515</v>
@@ -3570,13 +3561,13 @@
         <v>526495</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>1468</v>
@@ -3585,13 +3576,13 @@
         <v>1501521</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3597,13 @@
         <v>192576</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
@@ -3621,13 +3612,13 @@
         <v>176877</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>362</v>
@@ -3636,13 +3627,13 @@
         <v>369453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3689,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ABC861-CF71-4BD9-9E83-D12E7504C0C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522689C3-0EA1-424C-AC7D-2C4801B6E797}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3737,7 +3728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3844,13 +3835,13 @@
         <v>45711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3859,13 +3850,13 @@
         <v>35060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -3874,13 +3865,13 @@
         <v>80771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3886,13 @@
         <v>81382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>68</v>
@@ -3910,13 +3901,13 @@
         <v>69257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -3925,13 +3916,13 @@
         <v>150638</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3937,13 @@
         <v>38052</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -3961,13 +3952,13 @@
         <v>43855</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -3976,13 +3967,13 @@
         <v>81907</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4041,13 @@
         <v>101245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -4065,13 +4056,13 @@
         <v>75393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>166</v>
@@ -4080,13 +4071,13 @@
         <v>176638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4092,13 @@
         <v>188034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -4116,13 +4107,13 @@
         <v>121580</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -4131,13 +4122,13 @@
         <v>309614</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4143,13 @@
         <v>59884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4167,13 +4158,13 @@
         <v>51561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -4182,13 +4173,13 @@
         <v>111445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4235,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4256,13 +4247,13 @@
         <v>82567</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4271,13 +4262,13 @@
         <v>59643</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -4286,13 +4277,13 @@
         <v>142210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4298,13 @@
         <v>183660</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -4322,13 +4313,13 @@
         <v>131748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>301</v>
@@ -4337,13 +4328,13 @@
         <v>315409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4349,13 @@
         <v>58139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -4373,13 +4364,13 @@
         <v>56848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4388,13 +4379,13 @@
         <v>114987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4441,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4462,13 +4453,13 @@
         <v>80575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4477,13 +4468,13 @@
         <v>59692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4492,13 +4483,13 @@
         <v>140267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4504,13 @@
         <v>163738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -4528,13 +4519,13 @@
         <v>135952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
@@ -4543,13 +4534,13 @@
         <v>299690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4555,13 @@
         <v>35469</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -4579,13 +4570,13 @@
         <v>44821</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4594,13 +4585,13 @@
         <v>80290</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,7 +4647,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4668,13 +4659,13 @@
         <v>54031</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4683,13 +4674,13 @@
         <v>17872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4698,13 +4689,13 @@
         <v>71904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4710,13 @@
         <v>87209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -4734,13 +4725,13 @@
         <v>44679</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -4749,13 +4740,13 @@
         <v>131888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4761,13 @@
         <v>15129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4785,13 +4776,13 @@
         <v>5278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4800,13 +4791,13 @@
         <v>20407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4853,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4874,13 +4865,13 @@
         <v>41932</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4889,13 +4880,13 @@
         <v>10528</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -4904,13 +4895,13 @@
         <v>52460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4916,13 @@
         <v>26153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -4940,13 +4931,13 @@
         <v>8851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -4955,13 +4946,13 @@
         <v>35003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4967,13 @@
         <v>10221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4991,13 +4982,13 @@
         <v>3652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5006,13 +4997,13 @@
         <v>13873</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5071,13 @@
         <v>406062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H28" s="7">
         <v>237</v>
@@ -5095,13 +5086,13 @@
         <v>258188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M28" s="7">
         <v>612</v>
@@ -5110,13 +5101,13 @@
         <v>664250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5122,13 @@
         <v>730176</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H29" s="7">
         <v>472</v>
@@ -5146,13 +5137,13 @@
         <v>512066</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M29" s="7">
         <v>1163</v>
@@ -5161,13 +5152,13 @@
         <v>1242242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5173,13 @@
         <v>216894</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H30" s="7">
         <v>189</v>
@@ -5197,13 +5188,13 @@
         <v>206016</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M30" s="7">
         <v>391</v>
@@ -5212,13 +5203,13 @@
         <v>422910</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,7 +5265,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5296,7 +5287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC99170-6FAA-4B68-9581-AFD5DA6487B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77308132-E838-4E7C-ABF4-EA54395884D3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5313,7 +5304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5420,13 +5411,13 @@
         <v>27049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5435,13 +5426,13 @@
         <v>21728</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5450,13 +5441,13 @@
         <v>48777</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5462,13 @@
         <v>90343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -5486,13 +5477,13 @@
         <v>66070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -5501,13 +5492,13 @@
         <v>156413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5513,13 @@
         <v>24911</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5537,13 +5528,13 @@
         <v>16700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -5552,13 +5543,13 @@
         <v>41611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5617,13 @@
         <v>58431</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5641,13 +5632,13 @@
         <v>53752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -5656,13 +5647,13 @@
         <v>112183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5668,13 @@
         <v>170326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
@@ -5692,13 +5683,13 @@
         <v>132379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -5707,13 +5698,13 @@
         <v>302706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5719,13 @@
         <v>32325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5743,13 +5734,13 @@
         <v>25972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5758,13 +5749,13 @@
         <v>58297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,7 +5811,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5832,13 +5823,13 @@
         <v>56416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -5847,13 +5838,13 @@
         <v>33653</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -5862,13 +5853,13 @@
         <v>90069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>187</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,10 +5877,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -5898,13 +5889,13 @@
         <v>156852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -5913,13 +5904,13 @@
         <v>334057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5925,13 @@
         <v>30466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -5949,13 +5940,13 @@
         <v>27235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -5964,13 +5955,13 @@
         <v>57702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,7 +6017,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6038,13 +6029,13 @@
         <v>51731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6053,13 +6044,13 @@
         <v>44992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -6068,13 +6059,13 @@
         <v>96723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6080,13 @@
         <v>189215</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -6104,13 +6095,13 @@
         <v>149562</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -6119,13 +6110,13 @@
         <v>338776</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6131,13 @@
         <v>34831</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6155,13 +6146,13 @@
         <v>35257</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6170,13 +6161,13 @@
         <v>70088</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6223,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6235,13 @@
         <v>38191</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -6259,13 +6250,13 @@
         <v>28994</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -6274,13 +6265,13 @@
         <v>67185</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6286,13 @@
         <v>93449</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -6310,13 +6301,13 @@
         <v>72077</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -6325,13 +6316,13 @@
         <v>165526</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6337,13 @@
         <v>14193</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6361,13 +6352,13 @@
         <v>13017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>32</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6376,13 +6367,13 @@
         <v>27209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,7 +6429,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6450,13 +6441,13 @@
         <v>26119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>514</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -6465,13 +6456,13 @@
         <v>15114</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>92</v>
+        <v>517</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>520</v>
+        <v>368</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -6480,13 +6471,13 @@
         <v>41234</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6492,13 @@
         <v>51995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -6516,13 +6507,13 @@
         <v>18533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>524</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6531,13 +6522,13 @@
         <v>70528</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6543,13 @@
         <v>3144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6567,13 +6558,13 @@
         <v>4394</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6582,13 +6573,13 @@
         <v>7539</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6647,13 @@
         <v>257936</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H28" s="7">
         <v>188</v>
@@ -6671,13 +6662,13 @@
         <v>198234</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M28" s="7">
         <v>429</v>
@@ -6686,13 +6677,13 @@
         <v>456170</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>546</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6698,13 @@
         <v>772532</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>582</v>
@@ -6722,13 +6713,13 @@
         <v>595473</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M29" s="7">
         <v>1302</v>
@@ -6737,13 +6728,13 @@
         <v>1368005</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +6749,13 @@
         <v>139871</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -6773,13 +6764,13 @@
         <v>122575</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="M30" s="7">
         <v>244</v>
@@ -6788,13 +6779,13 @@
         <v>262446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,7 +6841,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3CF0F0-E887-4A67-BC73-5419D894F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C8449F-D550-4A52-91B9-9E8863B67F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B553BAC-966C-4345-9B33-97AE3B6BE908}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0812E15-0937-4816-B74E-B05A3D727C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="570">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>Igual</t>
@@ -106,28 +106,28 @@
     <t>68,11%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
   <si>
     <t>57,26%</t>
   </si>
   <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>Más</t>
@@ -136,1594 +136,1618 @@
     <t>24,79%</t>
   </si>
   <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
     <t>21,86%</t>
   </si>
   <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A9B2C4-9A4B-4C11-BB08-4F5CEA0CFABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD008BA-DB82-466B-85D6-828D9DD3C930}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2570,10 +2594,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -2582,13 +2606,13 @@
         <v>47860</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -2597,13 +2621,13 @@
         <v>103033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2683,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2671,13 +2695,13 @@
         <v>54503</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -2686,13 +2710,13 @@
         <v>45840</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>93</v>
@@ -2701,13 +2725,13 @@
         <v>100342</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2746,13 @@
         <v>240489</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -2737,13 +2761,13 @@
         <v>166627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -2752,13 +2776,13 @@
         <v>407116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2797,13 @@
         <v>45169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2788,13 +2812,13 @@
         <v>44994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -2803,13 +2827,13 @@
         <v>90163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2889,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2877,13 +2901,13 @@
         <v>31309</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2892,13 +2916,13 @@
         <v>29545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -2907,13 +2931,13 @@
         <v>60854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2952,13 @@
         <v>175486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -2943,13 +2967,13 @@
         <v>92545</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>254</v>
@@ -2958,13 +2982,13 @@
         <v>268031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +3003,13 @@
         <v>26890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -2994,13 +3018,13 @@
         <v>22877</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -3009,13 +3033,13 @@
         <v>49767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3095,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3083,13 +3107,13 @@
         <v>30063</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3098,13 +3122,13 @@
         <v>8790</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3113,13 +3137,13 @@
         <v>38853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3158,13 @@
         <v>89430</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3149,13 +3173,13 @@
         <v>30542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -3164,13 +3188,13 @@
         <v>119972</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3209,13 @@
         <v>9198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3200,13 +3224,13 @@
         <v>7555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3215,13 +3239,13 @@
         <v>16754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3301,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3313,13 @@
         <v>31478</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3304,13 +3328,13 @@
         <v>3814</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -3319,13 +3343,13 @@
         <v>35292</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3364,13 @@
         <v>39280</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3355,13 +3379,13 @@
         <v>5399</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3370,13 +3394,13 @@
         <v>44679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3415,13 @@
         <v>5069</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3406,13 +3430,13 @@
         <v>2006</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3421,13 +3445,13 @@
         <v>7075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3519,13 @@
         <v>215817</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -3510,13 +3534,13 @@
         <v>159958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>362</v>
@@ -3525,13 +3549,13 @@
         <v>375775</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3570,13 @@
         <v>975027</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>515</v>
@@ -3561,13 +3585,13 @@
         <v>526495</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>1468</v>
@@ -3576,13 +3600,13 @@
         <v>1501521</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3621,13 @@
         <v>192576</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>178</v>
@@ -3612,13 +3636,13 @@
         <v>176877</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>362</v>
@@ -3627,13 +3651,13 @@
         <v>369453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3713,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3711,7 +3735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522689C3-0EA1-424C-AC7D-2C4801B6E797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7451D22-1073-41DF-A66F-72B20FF9BCB4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3728,7 +3752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3835,13 +3859,13 @@
         <v>45711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3850,13 +3874,13 @@
         <v>35060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -3865,13 +3889,13 @@
         <v>80771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3910,13 @@
         <v>81382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>68</v>
@@ -3901,13 +3925,13 @@
         <v>69257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -3916,13 +3940,13 @@
         <v>150638</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3961,13 @@
         <v>38052</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -3952,13 +3976,13 @@
         <v>43855</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -3967,13 +3991,13 @@
         <v>81907</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4065,13 @@
         <v>101245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -4056,13 +4080,13 @@
         <v>75393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>166</v>
@@ -4071,13 +4095,13 @@
         <v>176638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4116,13 @@
         <v>188034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -4107,13 +4131,13 @@
         <v>121580</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -4122,13 +4146,13 @@
         <v>309614</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4167,13 @@
         <v>59884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4158,13 +4182,13 @@
         <v>51561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -4173,13 +4197,13 @@
         <v>111445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4259,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4247,13 +4271,13 @@
         <v>82567</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4262,13 +4286,13 @@
         <v>59643</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -4277,13 +4301,13 @@
         <v>142210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4322,13 @@
         <v>183660</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -4313,13 +4337,13 @@
         <v>131748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>301</v>
@@ -4328,13 +4352,13 @@
         <v>315409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4373,13 @@
         <v>58139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -4364,13 +4388,13 @@
         <v>56848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4379,13 +4403,13 @@
         <v>114987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4465,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4453,13 +4477,13 @@
         <v>80575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4468,13 +4492,13 @@
         <v>59692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4483,13 +4507,13 @@
         <v>140267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4528,13 @@
         <v>163738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -4519,13 +4543,13 @@
         <v>135952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
@@ -4534,13 +4558,13 @@
         <v>299690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4579,13 @@
         <v>35469</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -4570,13 +4594,13 @@
         <v>44821</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4585,13 +4609,13 @@
         <v>80290</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4671,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4659,13 +4683,13 @@
         <v>54031</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4674,13 +4698,13 @@
         <v>17872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4689,13 +4713,13 @@
         <v>71904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4734,13 @@
         <v>87209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -4725,13 +4749,13 @@
         <v>44679</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -4740,13 +4764,13 @@
         <v>131888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4785,13 @@
         <v>15129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4776,13 +4800,13 @@
         <v>5278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4791,13 +4815,13 @@
         <v>20407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4877,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4865,13 +4889,13 @@
         <v>41932</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4880,13 +4904,13 @@
         <v>10528</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -4895,13 +4919,13 @@
         <v>52460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4940,13 @@
         <v>26153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -4931,13 +4955,13 @@
         <v>8851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -4946,13 +4970,13 @@
         <v>35003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4991,13 @@
         <v>10221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4982,13 +5006,13 @@
         <v>3652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4997,13 +5021,13 @@
         <v>13873</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5095,13 @@
         <v>406062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H28" s="7">
         <v>237</v>
@@ -5086,13 +5110,13 @@
         <v>258188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="M28" s="7">
         <v>612</v>
@@ -5101,13 +5125,13 @@
         <v>664250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5146,13 @@
         <v>730176</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H29" s="7">
         <v>472</v>
@@ -5137,13 +5161,13 @@
         <v>512066</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>1163</v>
@@ -5152,13 +5176,13 @@
         <v>1242242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5197,13 @@
         <v>216894</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H30" s="7">
         <v>189</v>
@@ -5188,13 +5212,13 @@
         <v>206016</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M30" s="7">
         <v>391</v>
@@ -5203,13 +5227,13 @@
         <v>422910</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5289,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5287,7 +5311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77308132-E838-4E7C-ABF4-EA54395884D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD0DFD4-D0AD-4183-9314-BD5E32B87890}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5304,7 +5328,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5411,13 +5435,13 @@
         <v>27049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5426,13 +5450,13 @@
         <v>21728</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5441,13 +5465,13 @@
         <v>48777</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5486,13 @@
         <v>90343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -5477,13 +5501,13 @@
         <v>66070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -5492,13 +5516,13 @@
         <v>156413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5537,13 @@
         <v>24911</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5528,13 +5552,13 @@
         <v>16700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -5543,13 +5567,13 @@
         <v>41611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5641,13 @@
         <v>58431</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5632,13 +5656,13 @@
         <v>53752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -5647,13 +5671,13 @@
         <v>112183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5692,13 @@
         <v>170326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
@@ -5683,13 +5707,13 @@
         <v>132379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -5698,13 +5722,13 @@
         <v>302706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5743,13 @@
         <v>32325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5734,13 +5758,13 @@
         <v>25972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5749,13 +5773,13 @@
         <v>58297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,7 +5835,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5823,13 +5847,13 @@
         <v>56416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -5838,13 +5862,13 @@
         <v>33653</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -5853,13 +5877,13 @@
         <v>90069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,10 +5901,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -5889,13 +5913,13 @@
         <v>156852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -5904,13 +5928,13 @@
         <v>334057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5949,13 @@
         <v>30466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -5940,13 +5964,13 @@
         <v>27235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -5955,13 +5979,13 @@
         <v>57702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6041,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6029,13 +6053,13 @@
         <v>51731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6044,13 +6068,13 @@
         <v>44992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -6059,13 +6083,13 @@
         <v>96723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6104,13 @@
         <v>189215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -6095,13 +6119,13 @@
         <v>149562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -6110,13 +6134,13 @@
         <v>338776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6155,13 @@
         <v>34831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6146,13 +6170,13 @@
         <v>35257</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>483</v>
+        <v>188</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6161,13 +6185,13 @@
         <v>70088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6247,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6235,13 +6259,13 @@
         <v>38191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -6250,13 +6274,13 @@
         <v>28994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -6265,13 +6289,13 @@
         <v>67185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6310,13 @@
         <v>93449</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -6301,13 +6325,13 @@
         <v>72077</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -6316,13 +6340,13 @@
         <v>165526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6361,13 @@
         <v>14193</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6352,13 +6376,13 @@
         <v>13017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>32</v>
+        <v>516</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6367,13 +6391,13 @@
         <v>27209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6453,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6441,13 +6465,13 @@
         <v>26119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -6456,13 +6480,13 @@
         <v>15114</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>368</v>
+        <v>525</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -6471,13 +6495,13 @@
         <v>41234</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6516,13 @@
         <v>51995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -6507,13 +6531,13 @@
         <v>18533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6522,13 +6546,13 @@
         <v>70528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6567,13 @@
         <v>3144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>530</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6558,13 +6582,13 @@
         <v>4394</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6573,13 +6597,13 @@
         <v>7539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6671,13 @@
         <v>257936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H28" s="7">
         <v>188</v>
@@ -6662,13 +6686,13 @@
         <v>198234</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="M28" s="7">
         <v>429</v>
@@ -6677,13 +6701,13 @@
         <v>456170</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>104</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6722,13 @@
         <v>772532</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H29" s="7">
         <v>582</v>
@@ -6713,13 +6737,13 @@
         <v>595473</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>1302</v>
@@ -6728,13 +6752,13 @@
         <v>1368005</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6773,13 @@
         <v>139871</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -6764,13 +6788,13 @@
         <v>122575</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>375</v>
+        <v>567</v>
       </c>
       <c r="M30" s="7">
         <v>244</v>
@@ -6779,13 +6803,13 @@
         <v>262446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,7 +6865,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C8449F-D550-4A52-91B9-9E8863B67F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8055F4A5-66CD-46F9-A722-16952F054BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0812E15-0937-4816-B74E-B05A3D727C7F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F1AD372E-44AD-44EF-AA80-435CA8B500C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="627">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos</t>
@@ -163,7 +163,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -247,7 +247,7 @@
     <t>19,61%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>16,02%</t>
@@ -331,7 +331,7 @@
     <t>18,5%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>13,4%</t>
@@ -415,7 +415,7 @@
     <t>16,86%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>23,36%</t>
@@ -499,300 +499,369 @@
     <t>14,15%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
     <t>47,48%</t>
   </si>
   <si>
@@ -1063,85 +1132,142 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>30,01%</t>
@@ -1324,9 +1450,6 @@
     <t>28,1%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
     <t>58,51%</t>
   </si>
   <si>
@@ -1600,148 +1723,196 @@
     <t>15,23%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>12,58%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
   </si>
   <si>
     <t>11,1%</t>
@@ -2159,8 +2330,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD008BA-DB82-466B-85D6-828D9DD3C930}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D905B9A-95BF-4D12-A9BB-BB78F0D2A2AB}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3307,10 +3478,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>31478</v>
+        <v>17504</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>154</v>
@@ -3322,10 +3493,10 @@
         <v>156</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>3814</v>
+        <v>2690</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>157</v>
@@ -3337,10 +3508,10 @@
         <v>159</v>
       </c>
       <c r="M24" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>35292</v>
+        <v>20194</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>160</v>
@@ -3358,10 +3529,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>39280</v>
+        <v>31419</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>163</v>
@@ -3373,10 +3544,10 @@
         <v>165</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>5399</v>
+        <v>2963</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>166</v>
@@ -3388,10 +3559,10 @@
         <v>168</v>
       </c>
       <c r="M25" s="7">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N25" s="7">
-        <v>44679</v>
+        <v>34382</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>169</v>
@@ -3409,10 +3580,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>5069</v>
+        <v>4250</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>172</v>
@@ -3424,10 +3595,10 @@
         <v>174</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>2006</v>
+        <v>933</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>175</v>
@@ -3439,10 +3610,10 @@
         <v>177</v>
       </c>
       <c r="M26" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>7075</v>
+        <v>5183</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>178</v>
@@ -3460,10 +3631,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>75826</v>
+        <v>53173</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3475,10 +3646,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7">
-        <v>11220</v>
+        <v>6585</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3490,10 +3661,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N27" s="7">
-        <v>87046</v>
+        <v>59758</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3507,46 +3678,46 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>215817</v>
+        <v>13974</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>159958</v>
+        <v>1125</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>186</v>
       </c>
       <c r="M28" s="7">
-        <v>362</v>
+        <v>15</v>
       </c>
       <c r="N28" s="7">
-        <v>375775</v>
+        <v>15098</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>187</v>
@@ -3564,10 +3735,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>953</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>975027</v>
+        <v>7861</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>190</v>
@@ -3579,34 +3750,34 @@
         <v>192</v>
       </c>
       <c r="H29" s="7">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>526495</v>
+        <v>2437</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10297</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="7">
-        <v>1468</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1501521</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,49 +3786,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>192576</v>
+        <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1074</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M30" s="7">
+        <v>2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1892</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H30" s="7">
-        <v>178</v>
-      </c>
-      <c r="I30" s="7">
-        <v>176877</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M30" s="7">
-        <v>362</v>
-      </c>
-      <c r="N30" s="7">
-        <v>369453</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,63 +3837,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7">
+        <v>22654</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4635</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>27</v>
+      </c>
+      <c r="N31" s="7">
+        <v>27288</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>210</v>
+      </c>
+      <c r="D32" s="7">
+        <v>215817</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="7">
+        <v>152</v>
+      </c>
+      <c r="I32" s="7">
+        <v>159958</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="7">
+        <v>362</v>
+      </c>
+      <c r="N32" s="7">
+        <v>375775</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>953</v>
+      </c>
+      <c r="D33" s="7">
+        <v>975027</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="7">
+        <v>515</v>
+      </c>
+      <c r="I33" s="7">
+        <v>526495</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1468</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1501521</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>184</v>
+      </c>
+      <c r="D34" s="7">
+        <v>192576</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="7">
+        <v>178</v>
+      </c>
+      <c r="I34" s="7">
+        <v>176877</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
+        <v>362</v>
+      </c>
+      <c r="N34" s="7">
+        <v>369453</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1347</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>1383420</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>845</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>863330</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>2192</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>2246750</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3735,8 +4113,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7451D22-1073-41DF-A66F-72B20FF9BCB4}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E64E0F-7A7D-4AD2-9703-FF6CAB7B2191}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3752,7 +4130,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3859,13 +4237,13 @@
         <v>45711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -3874,13 +4252,13 @@
         <v>35060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>76</v>
@@ -3889,13 +4267,13 @@
         <v>80771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +4288,13 @@
         <v>81382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>68</v>
@@ -3925,13 +4303,13 @@
         <v>69257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -3940,13 +4318,13 @@
         <v>150638</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +4339,13 @@
         <v>38052</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>43</v>
@@ -3976,13 +4354,13 @@
         <v>43855</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -3991,13 +4369,13 @@
         <v>81907</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4443,13 @@
         <v>101245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -4080,13 +4458,13 @@
         <v>75393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>166</v>
@@ -4095,13 +4473,13 @@
         <v>176638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4494,13 @@
         <v>188034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -4131,13 +4509,13 @@
         <v>121580</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -4146,13 +4524,13 @@
         <v>309614</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4545,13 @@
         <v>59884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4182,13 +4560,13 @@
         <v>51561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -4197,13 +4575,13 @@
         <v>111445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4649,13 @@
         <v>82567</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4286,13 +4664,13 @@
         <v>59643</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -4301,13 +4679,13 @@
         <v>142210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4700,13 @@
         <v>183660</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
@@ -4337,13 +4715,13 @@
         <v>131748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>301</v>
@@ -4352,13 +4730,13 @@
         <v>315409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4751,13 @@
         <v>58139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -4388,13 +4766,13 @@
         <v>56848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -4403,13 +4781,13 @@
         <v>114987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4855,13 @@
         <v>80575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4492,13 +4870,13 @@
         <v>59692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -4507,13 +4885,13 @@
         <v>140267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4906,13 @@
         <v>163738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -4543,13 +4921,13 @@
         <v>135952</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
@@ -4558,13 +4936,13 @@
         <v>299690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4957,13 @@
         <v>35469</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -4594,13 +4972,13 @@
         <v>44821</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4609,13 +4987,13 @@
         <v>80290</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +5061,13 @@
         <v>54031</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -4698,13 +5076,13 @@
         <v>17872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>66</v>
@@ -4713,13 +5091,13 @@
         <v>71904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +5112,13 @@
         <v>87209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -4749,13 +5127,13 @@
         <v>44679</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -4764,13 +5142,13 @@
         <v>131888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +5163,13 @@
         <v>15129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4800,13 +5178,13 @@
         <v>5278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4815,13 +5193,13 @@
         <v>20407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,49 +5261,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>41932</v>
+        <v>25609</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>10528</v>
+        <v>7505</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>52460</v>
+        <v>33114</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,19 +5312,19 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>26153</v>
+        <v>18585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -4955,28 +5333,28 @@
         <v>8851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N25" s="7">
-        <v>35003</v>
+        <v>27435</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,49 +5363,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>10221</v>
+        <v>7060</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>3652</v>
+        <v>2647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="M26" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>13873</v>
+        <v>9707</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,10 +5414,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7">
-        <v>78306</v>
+        <v>51254</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5051,10 +5429,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I27" s="7">
-        <v>23031</v>
+        <v>19003</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5066,10 +5444,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="N27" s="7">
-        <v>101337</v>
+        <v>70257</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5083,55 +5461,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>375</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>406062</v>
+        <v>16323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>258188</v>
+        <v>3024</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>372</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>373</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
-        <v>612</v>
+        <v>16</v>
       </c>
       <c r="N28" s="7">
-        <v>664250</v>
+        <v>19346</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,49 +5518,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>691</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>730176</v>
+        <v>7568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="H29" s="7">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>512066</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>380</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="M29" s="7">
-        <v>1163</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>1242242</v>
+        <v>7568</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,49 +5569,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>216894</v>
+        <v>3161</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H30" s="7">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>206016</v>
+        <v>1005</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
-        <v>391</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>422910</v>
+        <v>4166</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,63 +5620,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>27052</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4029</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>27</v>
+      </c>
+      <c r="N31" s="7">
+        <v>31080</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>375</v>
+      </c>
+      <c r="D32" s="7">
+        <v>406062</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H32" s="7">
+        <v>237</v>
+      </c>
+      <c r="I32" s="7">
+        <v>258188</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M32" s="7">
+        <v>612</v>
+      </c>
+      <c r="N32" s="7">
+        <v>664250</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>691</v>
+      </c>
+      <c r="D33" s="7">
+        <v>730176</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H33" s="7">
+        <v>472</v>
+      </c>
+      <c r="I33" s="7">
+        <v>512066</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1163</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1242242</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>202</v>
+      </c>
+      <c r="D34" s="7">
+        <v>216894</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H34" s="7">
+        <v>189</v>
+      </c>
+      <c r="I34" s="7">
+        <v>206016</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M34" s="7">
+        <v>391</v>
+      </c>
+      <c r="N34" s="7">
+        <v>422910</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1268</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>1353132</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>898</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>976270</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>2166</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>2329402</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5311,8 +5896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD0DFD4-D0AD-4183-9314-BD5E32B87890}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A1D6C7-D495-4466-9C83-21FBC5F82AF9}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5328,7 +5913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5435,13 +6020,13 @@
         <v>27049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5450,13 +6035,13 @@
         <v>21728</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -5465,13 +6050,13 @@
         <v>48777</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +6071,13 @@
         <v>90343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -5501,13 +6086,13 @@
         <v>66070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>151</v>
@@ -5516,13 +6101,13 @@
         <v>156413</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +6122,13 @@
         <v>24911</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5552,13 +6137,13 @@
         <v>16700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -5570,10 +6155,10 @@
         <v>124</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +6226,13 @@
         <v>58431</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5656,13 +6241,13 @@
         <v>53752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -5671,13 +6256,13 @@
         <v>112183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +6277,13 @@
         <v>170326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="H9" s="7">
         <v>137</v>
@@ -5707,13 +6292,13 @@
         <v>132379</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>299</v>
@@ -5722,13 +6307,13 @@
         <v>302706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +6328,13 @@
         <v>32325</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5758,13 +6343,13 @@
         <v>25972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5773,13 +6358,13 @@
         <v>58297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +6432,13 @@
         <v>56416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -5862,13 +6447,13 @@
         <v>33653</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -5877,13 +6462,13 @@
         <v>90069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,10 +6486,10 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -5913,13 +6498,13 @@
         <v>156852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -5928,13 +6513,13 @@
         <v>334057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +6534,13 @@
         <v>30466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -5967,10 +6552,10 @@
         <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -5979,13 +6564,13 @@
         <v>57702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6638,13 @@
         <v>51731</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6068,13 +6653,13 @@
         <v>44992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -6083,13 +6668,13 @@
         <v>96723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6689,13 @@
         <v>189215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -6119,13 +6704,13 @@
         <v>149562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -6134,13 +6719,13 @@
         <v>338776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6740,13 @@
         <v>34831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6170,13 +6755,13 @@
         <v>35257</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6185,13 +6770,13 @@
         <v>70088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6844,13 @@
         <v>38191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -6274,13 +6859,13 @@
         <v>28994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -6289,13 +6874,13 @@
         <v>67185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6895,13 @@
         <v>93449</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -6325,13 +6910,13 @@
         <v>72077</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="M21" s="7">
         <v>146</v>
@@ -6340,13 +6925,13 @@
         <v>165526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6946,13 @@
         <v>14193</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6376,13 +6961,13 @@
         <v>13017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6391,13 +6976,13 @@
         <v>27209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,49 +7044,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>26119</v>
+        <v>16848</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="H24" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>15114</v>
+        <v>9788</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>41234</v>
+        <v>26636</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>527</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,49 +7095,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>51995</v>
+        <v>38239</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>18533</v>
+        <v>15845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="N25" s="7">
-        <v>70528</v>
+        <v>54084</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +7152,13 @@
         <v>3144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6582,13 +7167,13 @@
         <v>4394</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6597,13 +7182,13 @@
         <v>7539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,10 +7197,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D27" s="7">
-        <v>81259</v>
+        <v>58232</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6627,10 +7212,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I27" s="7">
-        <v>38041</v>
+        <v>30027</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6642,10 +7227,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="N27" s="7">
-        <v>119300</v>
+        <v>88259</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6659,55 +7244,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="D28" s="7">
-        <v>257936</v>
+        <v>9271</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="H28" s="7">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>198234</v>
+        <v>5326</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
-        <v>429</v>
+        <v>15</v>
       </c>
       <c r="N28" s="7">
-        <v>456170</v>
+        <v>14597</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,49 +7301,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>720</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7">
-        <v>772532</v>
+        <v>13756</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="H29" s="7">
-        <v>582</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>595473</v>
+        <v>2688</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>557</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
-        <v>1302</v>
+        <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>1368005</v>
+        <v>16444</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,49 +7352,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>139871</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>562</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>563</v>
+        <v>400</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="H30" s="7">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>122575</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>565</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>566</v>
+        <v>400</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="M30" s="7">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>262446</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>544</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>568</v>
+        <v>400</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,63 +7403,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>28</v>
+      </c>
+      <c r="D31" s="7">
+        <v>23027</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8014</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>34</v>
+      </c>
+      <c r="N31" s="7">
+        <v>31041</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>241</v>
+      </c>
+      <c r="D32" s="7">
+        <v>257936</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="H32" s="7">
+        <v>188</v>
+      </c>
+      <c r="I32" s="7">
+        <v>198234</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="M32" s="7">
+        <v>429</v>
+      </c>
+      <c r="N32" s="7">
+        <v>456170</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>720</v>
+      </c>
+      <c r="D33" s="7">
+        <v>772532</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H33" s="7">
+        <v>582</v>
+      </c>
+      <c r="I33" s="7">
+        <v>595473</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1302</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1368005</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>127</v>
+      </c>
+      <c r="D34" s="7">
+        <v>139871</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7">
+        <v>117</v>
+      </c>
+      <c r="I34" s="7">
+        <v>122575</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="M34" s="7">
+        <v>244</v>
+      </c>
+      <c r="N34" s="7">
+        <v>262446</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1088</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>1170338</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>887</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>916282</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>1975</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>2086620</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
